--- a/doc/ProductivityManagement.xlsx
+++ b/doc/ProductivityManagement.xlsx
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/:/d"/>
+    <numFmt numFmtId="176" formatCode="yyyy/:/d"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -175,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
@@ -527,7 +527,7 @@
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -642,88 +642,96 @@
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
       <c r="D5">
         <f t="shared" ref="D5:D7" si="0">C5-C4</f>
-        <v>-56</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>66</v>
+      </c>
       <c r="F5">
         <f t="shared" ref="F5:H7" si="1">E5-E4</f>
-        <v>-53</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G7" si="2">C5+E5</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>-109</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J7" si="3">D5/I5</f>
-        <v>-5.6</v>
+        <v>0.4</v>
       </c>
       <c r="K5">
         <v>0.8</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L7" si="4">F5/I5</f>
-        <v>-5.3</v>
+        <v>1.3</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N7" si="5">J5-M5</f>
-        <v>-7.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>67</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>81</v>
+      </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -735,14 +743,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -750,28 +758,28 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="K7">
         <v>1.2</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="8" spans="2:14">

--- a/doc/ProductivityManagement.xlsx
+++ b/doc/ProductivityManagement.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$F$19</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Pages</t>
     <phoneticPr fontId="2"/>
@@ -74,6 +78,153 @@
   </si>
   <si>
     <t>1/27</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Page</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Time Ets'd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Word to vec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Theanoの解説</t>
+    <rPh sb="7" eb="9">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bengio2012の内容</t>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pylearn2の解説</t>
+    <rPh sb="9" eb="11">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gpu, cudaの解説</t>
+    <rPh sb="10" eb="12">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dropout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dropconnect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>devise(frome2013devise)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deep learning tutorial</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mikolov2013distributed</t>
+  </si>
+  <si>
+    <t>cesa-bianchi2013a-gang</t>
+  </si>
+  <si>
+    <t>mnih2013playing(atari)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実験のときの誤差のグラフ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイト収益が機械学習で上がる絵</t>
+    <rPh sb="3" eb="5">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>キカイガクシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレーム問題、シンボル問題の解決</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニューラルネット自体の説明</t>
+    <rPh sb="8" eb="10">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NLPにおけるDeep Learning(bengio)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not yet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not yet or Done</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -151,7 +302,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -169,16 +320,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="23">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -187,6 +348,9 @@
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -196,6 +360,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -526,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -822,4 +989,414 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="6">
+        <f>D3/E3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="6">
+        <f>D4/E4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <f>D5/E5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6/E6</f>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7/E7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8/E8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9/E9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10/E10</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11/E11</f>
+        <v>0.75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12/E12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13/E13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14/E14</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15/E15</f>
+        <v>0.6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="6">
+        <f>D16/E16</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17/E17</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <f>D18/E18</f>
+        <v>0.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19/E19</f>
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:F19">
+    <sortState ref="C3:F19">
+      <sortCondition descending="1" ref="F2:F19"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/ProductivityManagement.xlsx
+++ b/doc/ProductivityManagement.xlsx
@@ -302,8 +302,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -339,7 +341,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -351,6 +353,7 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -363,6 +366,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -996,7 +1000,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1192,7 +1196,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:8">
